--- a/Model-Comparison.xlsx
+++ b/Model-Comparison.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victormyeste/Library/CloudStorage/GoogleDrive-victormyeste@gmail.com/Mi unidad/Inner World/Research/Tesis Informática/Touche-Human-Value-Detection/touche-human-value-detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A5C92-845A-CC4B-9E88-193EBBDC79E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB06DA1B-1573-5B44-8BDA-55FC9366A3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AB5E2BCA-D81C-FC41-A74E-15C18150A6F0}"/>
+    <workbookView xWindow="-38400" yWindow="-1800" windowWidth="38400" windowHeight="21600" xr2:uid="{AB5E2BCA-D81C-FC41-A74E-15C18150A6F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Single Models (subtask 2)" sheetId="1" r:id="rId1"/>
-    <sheet name="Models (subtask 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Single Models (sub-task 1+2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Models (sub-task 1)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1ECF79-E62A-9140-BC80-F5BFB73FF9EC}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1988,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
